--- a/Team_Project_plan.xlsx
+++ b/Team_Project_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Documents\git\07-Project\team-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EEFA6D-442D-4369-ACF9-526422C57CA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1605B8-4E63-4B2F-B163-4F2AE5E50C0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="600" windowWidth="18285" windowHeight="12420" xr2:uid="{1B4D6647-52EC-4129-BB3E-0318896B5CB1}"/>
+    <workbookView xWindow="2370" yWindow="495" windowWidth="17415" windowHeight="11340" xr2:uid="{1B4D6647-52EC-4129-BB3E-0318896B5CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Gather zip codes </t>
   </si>
@@ -47,8 +47,89 @@
     <t>Use ATTOM - schoold districts info to get school a school disctric for each zip</t>
   </si>
   <si>
+    <t>Use OBInstID from ATTOM general school search above, in API calls to get school detail</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>TASK Descr / Detail</t>
+  </si>
+  <si>
+    <t>Person(s) working it</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Decide on project topic</t>
+  </si>
+  <si>
+    <t>Find / decide on APIs, CSVs, datasets to use</t>
+  </si>
+  <si>
+    <t>Write up &amp; submit proposal</t>
+  </si>
+  <si>
+    <t>Decide on a statistical model to use</t>
+  </si>
+  <si>
+    <t>Do it / write code / calculate it</t>
+  </si>
+  <si>
+    <t>Decide on real estate data to gather in conjunction with school info</t>
+  </si>
+  <si>
+    <t>Gather School Data</t>
+  </si>
+  <si>
+    <t>Pets, Baseball, real estate.  RE it is.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillow, ATTOM, </t>
+  </si>
+  <si>
+    <t>See PPT from Jeff for outline</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>If District, we need Obdistrictnumber from school detail records to use for districtdetail API</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>Use (high) SCHOOL detail?  Or DISTRICT detail?</t>
+  </si>
+  <si>
+    <t>Gather all the data</t>
+  </si>
+  <si>
+    <t>Create graphs</t>
+  </si>
+  <si>
+    <t>Do it/ write code/ create &amp; save png</t>
+  </si>
+  <si>
+    <t>Prepare presentation</t>
+  </si>
+  <si>
+    <t>Use Google charts(??) or PowerPoint.  Needs to be xx minutes long.</t>
+  </si>
+  <si>
+    <t>Practice the presentation</t>
+  </si>
+  <si>
+    <t>Sammi, David, Tim</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">May have to do manually looking at JSON data on ATTOM site, since there are multiple districts per zip.  Use public school.  Set radius to 3 miles??  Important data to get is </t>
+      <t xml:space="preserve">May have to do manually by looking at JSON data on ATTOM site, since there are multiple districts per zip.  Use public school.  Set radius to 3 miles??  Important data to get is </t>
     </r>
     <r>
       <rPr>
@@ -69,54 +150,59 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for the high school</t>
+      <t xml:space="preserve"> for the high school.
+See </t>
     </r>
-  </si>
-  <si>
-    <t>Use OBInstID from ATTOM general school search above, in API calls to get school detail</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>TASK Descr / Detail</t>
-  </si>
-  <si>
-    <t>Person(s) working it</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Decide on project topic</t>
-  </si>
-  <si>
-    <t>Find / decide on APIs, CSVs, datasets to use</t>
-  </si>
-  <si>
-    <t>Write up &amp; submit proposal</t>
-  </si>
-  <si>
-    <t>Sammi, David</t>
-  </si>
-  <si>
-    <t>Decide on a statistical model to use</t>
-  </si>
-  <si>
-    <t>Do it / write code / calculate it</t>
-  </si>
-  <si>
-    <t>Decide on real estate data to gather in conjunction with school info</t>
-  </si>
-  <si>
-    <t>Gather School Data</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data\school_zip_lat_long.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for info and to fill in.
+See </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Misc\How_to_get_OBInstID.rtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for detailed instructions.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +212,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,10 +251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,9 +263,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,10 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD861C00-D7B8-438C-AC45-1AA0759F68F0}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,40 +599,71 @@
     <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,10 +671,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -538,35 +685,87 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Team_Project_plan.xlsx
+++ b/Team_Project_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Documents\git\07-Project\team-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1605B8-4E63-4B2F-B163-4F2AE5E50C0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3DC20-2266-427A-8D6E-EDA6606D3B41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="495" windowWidth="17415" windowHeight="11340" xr2:uid="{1B4D6647-52EC-4129-BB3E-0318896B5CB1}"/>
+    <workbookView xWindow="3915" yWindow="0" windowWidth="17415" windowHeight="12225" xr2:uid="{1B4D6647-52EC-4129-BB3E-0318896B5CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t xml:space="preserve">Gather zip codes </t>
   </si>
@@ -77,9 +77,6 @@
     <t>Do it / write code / calculate it</t>
   </si>
   <si>
-    <t>Decide on real estate data to gather in conjunction with school info</t>
-  </si>
-  <si>
     <t>Gather School Data</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>all</t>
   </si>
   <si>
-    <t xml:space="preserve">Zillow, ATTOM, </t>
-  </si>
-  <si>
     <t>See PPT from Jeff for outline</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Use (high) SCHOOL detail?  Or DISTRICT detail?</t>
   </si>
   <si>
-    <t>Gather all the data</t>
-  </si>
-  <si>
     <t>Create graphs</t>
   </si>
   <si>
@@ -119,13 +110,43 @@
     <t>Prepare presentation</t>
   </si>
   <si>
-    <t>Use Google charts(??) or PowerPoint.  Needs to be xx minutes long.</t>
-  </si>
-  <si>
     <t>Practice the presentation</t>
   </si>
   <si>
     <t>Sammi, David, Tim</t>
+  </si>
+  <si>
+    <t>Sammi, David</t>
+  </si>
+  <si>
+    <t>Go with School - high school if possible, middle if not avail for zip</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>N/A - going with School info</t>
+  </si>
+  <si>
+    <t>Zillow, ATTOM, Google places</t>
+  </si>
+  <si>
+    <t>Gather Real Estate Data</t>
+  </si>
+  <si>
+    <t>Decide what real estate data to gather (in conjunction with school info above)</t>
+  </si>
+  <si>
+    <t>Use ATTOM - Propert extended to get GeoID for each lan &amp; long (zip) used for schools above</t>
+  </si>
+  <si>
+    <t>Use GeoID in ATTOM Sales Trend by Year API</t>
+  </si>
+  <si>
+    <t>Use /salestrend/snapshot API.  Pull  5 years - 2014 - 2018.  Parse JSON.  Put into Pandas data frame</t>
+  </si>
+  <si>
+    <t>Use Property Extended:  /property/snapshot with lat, lon again (like school) to get GeoID.  Add to csv spreadsheet.</t>
   </si>
   <si>
     <r>
@@ -194,8 +215,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>for detailed instructions.</t>
+      <t>for detailed instructions.
+Put into csv file.</t>
     </r>
+  </si>
+  <si>
+    <t>Read csv.  Use API.  Parse JSON.  Put into Pandas data frame.</t>
+  </si>
+  <si>
+    <t>David &amp; Sammi</t>
+  </si>
+  <si>
+    <t>Development requirements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Pandas to clean and format your dataset(s). </t>
+  </si>
+  <si>
+    <t>Create a Jupyter Notebook describing the data exploration and cleanup process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Jupyter Notebook illustrating the ﬁnal data analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Matplotlib to create a total of 6–8 visualizations of your data (ideally, at least 2 per ”question” you ask of your data). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save PNG images of your visualizations to distribute to the class and instructional team, and for inclusion in your presentation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Optional) Use at least one API, if you can ﬁnd an API with data pertinent to your primary research questions. </t>
+  </si>
+  <si>
+    <t>Create a write-up summarizing your major ﬁndings. This should include a heading for each “question” you asked of your data and a short description of your ﬁndings and any relevant plots.</t>
+  </si>
+  <si>
+    <t>Used Google API for zip to lat, lon.  Used multiple ATTOM APIs for School data and real estate data</t>
+  </si>
+  <si>
+    <t>Presentation requirements:</t>
+  </si>
+  <si>
+    <t>Use Google charts(??) or PowerPoint.  Needs to be 10 minutes long.</t>
+  </si>
+  <si>
+    <t>Questions you found interesting and what motivated you to answer them</t>
+  </si>
+  <si>
+    <t>Where and how you found the data you used to answer these questions</t>
+  </si>
+  <si>
+    <t>The data exploration and cleanup process (accompanied by your Jupyter Notebook)</t>
+  </si>
+  <si>
+    <t>The analysis process (accompanied by your Jupyter Notebook)</t>
+  </si>
+  <si>
+    <t>Your conclusions, which should include a numerical summary and visualizations of that summary</t>
+  </si>
+  <si>
+    <t>The implications of your findings: what do your findings mean?</t>
   </si>
 </sst>
 </file>
@@ -255,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,6 +351,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD861C00-D7B8-438C-AC45-1AA0759F68F0}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
@@ -613,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,10 +709,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -635,10 +723,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -649,18 +737,18 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,87 +773,227 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
